--- a/server/test/data/oil_fields.xlsx
+++ b/server/test/data/oil_fields.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>Nome</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>ES-M-529</t>
+  </si>
+  <si>
+    <t>Atualizações</t>
   </si>
 </sst>
 </file>
@@ -498,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -512,7 +515,7 @@
     <col min="4" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -558,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -578,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -598,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -641,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -661,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -681,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -701,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -721,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -741,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -761,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -781,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -801,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
